--- a/utils/작업자 pay계산.xlsx
+++ b/utils/작업자 pay계산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcy37\PycharmProjects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF7127-F838-4F7C-A6A2-06F3B7ACCF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8CED9-E2BB-4BBF-A9FE-33B1B3AE4B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1158,7 +1158,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="11">
-        <v>7946600</v>
+        <v>7419500</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="1"/>
-        <v>3372200</v>
+        <v>2845100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">

--- a/utils/작업자 pay계산.xlsx
+++ b/utils/작업자 pay계산.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcy37\PycharmProjects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8CED9-E2BB-4BBF-A9FE-33B1B3AE4B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36235D-DE93-4546-9C25-4F57DC2917E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22104" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,16 +982,16 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C2" sqref="C1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="4" max="14" width="8.796875" customWidth="1"/>
     <col min="15" max="15" width="13.296875" customWidth="1"/>
-    <col min="16" max="16" width="2.59765625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.59765625" customWidth="1"/>
     <col min="17" max="17" width="12.3984375" customWidth="1"/>
     <col min="19" max="19" width="22.796875" customWidth="1"/>
   </cols>
